--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191B1567-3167-494D-82F0-39E13166035E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EE2E1-82BB-4A7D-809C-8EAF4B8CBE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -159,12 +159,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0：開帳
-1：關帳
-2：關帳取消</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>預設為01，關帳後再開帳則＋１</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -257,12 +251,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>預設為00，關帳時+1、關帳取消則-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0:開帳
+1:關帳
+2:關帳取消</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>只更新特定筆(09:放款)
-預設為000，產生上傳媒體(02:支票繳款，09:放款)關帳時＋１</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>預設為00，關帳時+1、關帳取消則-1</t>
+預設為000，產生上傳媒體(02=支票繳款，09=放款)關帳時＋１</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -862,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -883,10 +883,10 @@
       </c>
       <c r="B1" s="28"/>
       <c r="C1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="7"/>
@@ -1043,7 +1043,7 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="21" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="F14" s="5"/>
       <c r="G14" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1114,10 +1114,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="23" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>44</v>
       </c>
       <c r="D15" s="18" t="s">
         <v>16</v>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
@@ -1135,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="23" t="s">
         <v>57</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>58</v>
       </c>
       <c r="D16" s="18" t="s">
         <v>16</v>
@@ -1148,7 +1148,7 @@
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1156,13 +1156,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="D17" s="18" t="s">
         <v>47</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>48</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -1171,13 +1171,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="D18" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="E18" s="17">
         <v>6</v>
@@ -1189,13 +1189,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>54</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -1204,10 +1204,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>12</v>
@@ -1263,13 +1263,13 @@
     </row>
     <row r="2" spans="1:3" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L6-共同作業/AcClose.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{111EE2E1-82BB-4A7D-809C-8EAF4B8CBE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{729E108D-724A-4C33-BB4B-F4C0DA9E09A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,15 @@
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -261,7 +270,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>只更新特定筆(09:放款)
+    <t>只更新特定筆(09：放款)
 預設為000，產生上傳媒體(02=支票繳款，09=放款)關帳時＋１</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -863,7 +872,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
